--- a/ofc/estimates/siri dai/V panchakanya mandir.xlsx
+++ b/ofc/estimates/siri dai/V panchakanya mandir.xlsx
@@ -9,23 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="200k" sheetId="20" r:id="rId1"/>
     <sheet name="WCR" sheetId="6" r:id="rId2"/>
     <sheet name="Valuated" sheetId="21" r:id="rId3"/>
+    <sheet name="M" sheetId="22" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="description_103">[1]Abstract!$B$16</definedName>
     <definedName name="description_124" localSheetId="0">#REF!</definedName>
+    <definedName name="description_124" localSheetId="3">#REF!</definedName>
     <definedName name="description_124" localSheetId="2">#REF!</definedName>
     <definedName name="description_124">#REF!</definedName>
     <definedName name="description_247">[1]Abstract!$B$22</definedName>
@@ -41,8 +43,11 @@
     <definedName name="description_781">[5]Abstract!$B$299</definedName>
     <definedName name="description_783">[1]Abstract!$B$301</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'200k'!$A$1:$K$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Valuated!$A$1:$K$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">M!$A$1:$K$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Valuated!$A$1:$K$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">WCR!$A$1:$K$32</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'200k'!$1:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">M!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Valuated!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">WCR!$1:$12</definedName>
   </definedNames>
@@ -64,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="63">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -180,12 +185,6 @@
     <t xml:space="preserve">Work Finished:           </t>
   </si>
   <si>
-    <t xml:space="preserve">F.Y:2079/80                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date:2079/06/13       </t>
-  </si>
-  <si>
     <t>VAT calculation</t>
   </si>
   <si>
@@ -249,7 +248,16 @@
     <t>Detail Valuated Sheet</t>
   </si>
   <si>
-    <t>Date:2081</t>
+    <t>Date:2081/12/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date:2081/12/11       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F.Y:2081/2082             </t>
+  </si>
+  <si>
+    <t>Detail Quantity Measurement Sheet</t>
   </si>
 </sst>
 </file>
@@ -436,7 +444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -587,71 +595,79 @@
     </xf>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1271,7 +1287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1290,113 +1306,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="A6" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
+      <c r="H6" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
+      <c r="H7" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -1433,7 +1449,7 @@
         <v>15</v>
       </c>
       <c r="N8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
@@ -1441,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -1453,16 +1469,16 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="N9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="36">
         <v>1</v>
@@ -1497,7 +1513,7 @@
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="20"/>
@@ -1508,7 +1524,7 @@
         <v>12.343797622676012</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I11" s="23">
         <v>64.63</v>
@@ -1529,7 +1545,7 @@
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
@@ -1576,7 +1592,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
@@ -1598,7 +1614,7 @@
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="66">
         <v>0.5</v>
@@ -1634,7 +1650,7 @@
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
@@ -1645,7 +1661,7 @@
         <v>1.5429747028345016</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I16" s="23">
         <v>404.28</v>
@@ -1688,7 +1704,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
@@ -1747,7 +1763,7 @@
     <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="43"/>
@@ -1758,7 +1774,7 @@
         <v>1.2149999999999999</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I20" s="33">
         <v>4561.53</v>
@@ -1772,7 +1788,7 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="43"/>
@@ -1805,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="20"/>
@@ -1896,7 +1912,7 @@
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="43"/>
@@ -1907,7 +1923,7 @@
         <v>0.80999999999999994</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I26" s="33">
         <v>10634.5</v>
@@ -1921,7 +1937,7 @@
     <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="43"/>
@@ -1954,7 +1970,7 @@
         <v>5</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C29" s="64"/>
       <c r="D29" s="39"/>
@@ -1969,7 +1985,7 @@
     <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30" s="36">
         <v>1</v>
@@ -2005,7 +2021,7 @@
     <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="43"/>
@@ -2016,7 +2032,7 @@
         <v>13.177991541260576</v>
       </c>
       <c r="H31" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I31" s="33">
         <v>9709.43</v>
@@ -2030,7 +2046,7 @@
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" s="42"/>
       <c r="D32" s="43"/>
@@ -2063,7 +2079,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="65" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C34" s="42"/>
       <c r="D34" s="43"/>
@@ -2078,7 +2094,7 @@
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C35" s="42">
         <v>1</v>
@@ -2102,7 +2118,7 @@
     <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36" s="42"/>
       <c r="D36" s="43"/>
@@ -2113,7 +2129,7 @@
         <v>40</v>
       </c>
       <c r="H36" s="33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I36" s="33">
         <v>1737.28</v>
@@ -2127,7 +2143,7 @@
     <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" s="42"/>
       <c r="D37" s="43"/>
@@ -2241,11 +2257,11 @@
       <c r="B43" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="87">
+      <c r="C43" s="70">
         <f>J41</f>
         <v>227838.95067223188</v>
       </c>
-      <c r="D43" s="87"/>
+      <c r="D43" s="70"/>
       <c r="E43" s="39">
         <v>100</v>
       </c>
@@ -2261,10 +2277,10 @@
       <c r="B44" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="88">
+      <c r="C44" s="73">
         <v>200000</v>
       </c>
-      <c r="D44" s="88"/>
+      <c r="D44" s="73"/>
       <c r="E44" s="39"/>
       <c r="F44" s="49"/>
       <c r="G44" s="48"/>
@@ -2278,11 +2294,11 @@
       <c r="B45" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="88">
+      <c r="C45" s="73">
         <f>C44-C47-C48</f>
         <v>190000</v>
       </c>
-      <c r="D45" s="88"/>
+      <c r="D45" s="73"/>
       <c r="E45" s="39">
         <f>C45/C43*100</f>
         <v>83.392237999433718</v>
@@ -2299,11 +2315,11 @@
       <c r="B46" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="87">
+      <c r="C46" s="70">
         <f>C43-C45</f>
         <v>37838.950672231877</v>
       </c>
-      <c r="D46" s="87"/>
+      <c r="D46" s="70"/>
       <c r="E46" s="39">
         <f>100-E45</f>
         <v>16.607762000566282</v>
@@ -2320,11 +2336,11 @@
       <c r="B47" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="87">
+      <c r="C47" s="70">
         <f>C44*0.03</f>
         <v>6000</v>
       </c>
-      <c r="D47" s="87"/>
+      <c r="D47" s="70"/>
       <c r="E47" s="39">
         <v>3</v>
       </c>
@@ -2340,11 +2356,11 @@
       <c r="B48" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="87">
+      <c r="C48" s="70">
         <f>C44*0.02</f>
         <v>4000</v>
       </c>
-      <c r="D48" s="87"/>
+      <c r="D48" s="70"/>
       <c r="E48" s="39">
         <v>2</v>
       </c>
@@ -2426,6 +2442,13 @@
     <row r="105" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="A7:F7"/>
@@ -2434,13 +2457,6 @@
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -2457,8 +2473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2476,91 +2492,91 @@
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-    </row>
-    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="76" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+    </row>
+    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="77" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="73">
+      <c r="C6" s="86">
         <f>F32</f>
         <v>227838.95067223188</v>
       </c>
-      <c r="D6" s="74"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -2568,90 +2584,90 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="73">
+      <c r="J6" s="86">
         <f>I32</f>
-        <v>222204.20863519714</v>
-      </c>
-      <c r="K6" s="74"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>227972.15232177684</v>
+      </c>
+      <c r="K6" s="87"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="I7" s="81" t="s">
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="I7" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="I8" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="I9" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="74" t="str">
+        <f>'200k'!A6:F6</f>
+        <v xml:space="preserve">Project:- पन्चकन्या मन्दिर </v>
+      </c>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="I8" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="74" t="str">
+        <f>'200k'!A7:F7</f>
+        <v>Location:- Shankharapur Municipality 9</v>
+      </c>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="I9" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84" t="s">
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="78" t="s">
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="79" t="s">
+      <c r="K11" s="81" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="80"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -2670,10 +2686,10 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="78"/>
-      <c r="K12" s="79"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="J12" s="80"/>
+      <c r="K12" s="81"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <f>'200k'!A9</f>
         <v>1</v>
@@ -2699,24 +2715,28 @@
         <v>797.77964035355058</v>
       </c>
       <c r="G13" s="12">
-        <f>Valuated!G11</f>
-        <v>5.325205729960377</v>
+        <f>Valuated!G12</f>
+        <v>4.8836269430051811</v>
       </c>
       <c r="H13" s="12">
-        <f>Valuated!I11</f>
+        <f>Valuated!I12</f>
         <v>64.63</v>
       </c>
       <c r="I13" s="12">
         <f>G13*H13</f>
-        <v>344.16804632733914</v>
+        <v>315.62880932642486</v>
       </c>
       <c r="J13" s="28">
         <f>I13-F13</f>
-        <v>-453.61159402621143</v>
+        <v>-482.15083102712572</v>
       </c>
       <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M13" s="1">
+        <f>1.25*F13</f>
+        <v>997.22455044193816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="32" t="str">
         <f>'200k'!B12</f>
@@ -2732,16 +2752,16 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12">
-        <f>Valuated!J12</f>
-        <v>37.082957634867412</v>
+        <f>Valuated!J13</f>
+        <v>34.007950155440412</v>
       </c>
       <c r="J14" s="28">
         <f>I14-F14</f>
-        <v>-48.87513441024079</v>
+        <v>-51.95014188966779</v>
       </c>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="32"/>
       <c r="C15" s="12"/>
@@ -2754,7 +2774,7 @@
       <c r="J15" s="28"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <f>'200k'!A14</f>
         <v>2</v>
@@ -2780,22 +2800,26 @@
         <v>623.79381286193222</v>
       </c>
       <c r="G16" s="12">
-        <f>Valuated!G16</f>
-        <v>0.66565071624504712</v>
+        <f>Valuated!G17</f>
+        <v>0</v>
       </c>
       <c r="H16" s="12">
-        <f>Valuated!I16</f>
+        <f>Valuated!I17</f>
         <v>404.28</v>
       </c>
       <c r="I16" s="12">
         <f>G16*H16</f>
-        <v>269.10927156354762</v>
+        <v>0</v>
       </c>
       <c r="J16" s="28">
         <f>I16-F16</f>
-        <v>-354.6845412983846</v>
+        <v>-623.79381286193222</v>
       </c>
       <c r="K16" s="14"/>
+      <c r="M16" s="1">
+        <f>1.25*F16</f>
+        <v>779.74226607741525</v>
+      </c>
     </row>
     <row r="17" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
@@ -2836,22 +2860,26 @@
         <v>5542.2589499999995</v>
       </c>
       <c r="G18" s="12">
-        <f>Valuated!G20</f>
-        <v>1.3313014324900942</v>
+        <f>Valuated!G22</f>
+        <v>1.2209067357512953</v>
       </c>
       <c r="H18" s="12">
-        <f>Valuated!I20</f>
+        <f>Valuated!I22</f>
         <v>4561.53</v>
       </c>
       <c r="I18" s="12">
         <f>G18*H18</f>
-        <v>6072.7714233465394</v>
+        <v>5569.2027023316059</v>
       </c>
       <c r="J18" s="28">
         <f>I18-F18</f>
-        <v>530.51247334653999</v>
+        <v>26.943752331606447</v>
       </c>
       <c r="K18" s="14"/>
+      <c r="M18" s="1">
+        <f>1.25*F18</f>
+        <v>6927.8236874999993</v>
+      </c>
     </row>
     <row r="19" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
@@ -2869,12 +2897,12 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12">
-        <f>Valuated!J21</f>
-        <v>534.87378140810722</v>
+        <f>Valuated!J23</f>
+        <v>490.52076904663215</v>
       </c>
       <c r="J19" s="28">
         <f>I19-F19</f>
-        <v>46.726147408107295</v>
+        <v>2.3731350466322283</v>
       </c>
       <c r="K19" s="14"/>
     </row>
@@ -2917,22 +2945,26 @@
         <v>8613.9449999999997</v>
       </c>
       <c r="G21" s="12">
-        <f>Valuated!G26</f>
-        <v>0.42988357208168243</v>
+        <f>Valuated!G28</f>
+        <v>0.42449497104541301</v>
       </c>
       <c r="H21" s="12">
-        <f>Valuated!I26</f>
+        <f>Valuated!I28</f>
         <v>10634.5</v>
       </c>
       <c r="I21" s="12">
         <f>G21*H21</f>
-        <v>4571.5968473026514</v>
+        <v>4514.2917695824444</v>
       </c>
       <c r="J21" s="28">
         <f>I21-F21</f>
-        <v>-4042.3481526973483</v>
+        <v>-4099.6532304175553</v>
       </c>
       <c r="K21" s="14"/>
+      <c r="M21" s="1">
+        <f>1.25*F21</f>
+        <v>10767.43125</v>
+      </c>
     </row>
     <row r="22" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
@@ -2950,12 +2982,12 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12">
-        <f>Valuated!J27</f>
-        <v>450.96328560447023</v>
+        <f>Valuated!J29</f>
+        <v>445.31044984626647</v>
       </c>
       <c r="J22" s="28">
         <f>I22-F22</f>
-        <v>-398.75576639552969</v>
+        <v>-404.40860215373345</v>
       </c>
       <c r="K22" s="14"/>
     </row>
@@ -2998,20 +3030,20 @@
         <v>127950.78641046167</v>
       </c>
       <c r="G24" s="12">
-        <f>Valuated!G31</f>
-        <v>13.905425203119638</v>
+        <f>Valuated!G33</f>
+        <v>13.343374899360992</v>
       </c>
       <c r="H24" s="12">
-        <f>Valuated!I31</f>
+        <f>Valuated!I33</f>
         <v>9709.43</v>
       </c>
       <c r="I24" s="12">
         <f>G24*H24</f>
-        <v>135013.7526299259</v>
+        <v>129556.56454910259</v>
       </c>
       <c r="J24" s="28">
         <f>I24-F24</f>
-        <v>7062.9662194642297</v>
+        <v>1605.7781386409188</v>
       </c>
       <c r="K24" s="14"/>
       <c r="M24" s="1">
@@ -3035,12 +3067,12 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12">
-        <f>Valuated!J32</f>
-        <v>9794.9064237813764</v>
+        <f>Valuated!J34</f>
+        <v>9399.0012248854255</v>
       </c>
       <c r="J25" s="28">
         <f>I25-F25</f>
-        <v>512.40034327174908</v>
+        <v>116.49514437579819</v>
       </c>
       <c r="K25" s="14"/>
     </row>
@@ -3062,7 +3094,7 @@
         <f>'200k'!A34</f>
         <v>6</v>
       </c>
-      <c r="B27" s="89" t="str">
+      <c r="B27" s="69" t="str">
         <f>'200k'!B34</f>
         <v xml:space="preserve">dfn;fdfg pknAw u/L %) dL=dL= df]6f] x]eL 8o"6L OG6/nls+u s+lqm6Ans %) dL=dL=df]6fOsf] qm;/ 8:6 dfyL /fvL la5ofpg]] sfd k'/f </v>
       </c>
@@ -3083,22 +3115,26 @@
         <v>69491.199999999997</v>
       </c>
       <c r="G27" s="12">
-        <f>Valuated!G37</f>
-        <v>35.355074672355983</v>
+        <f>Valuated!G39</f>
+        <v>42.212499999999999</v>
       </c>
       <c r="H27" s="12">
-        <f>Valuated!I37</f>
+        <f>Valuated!I39</f>
         <v>1737.28</v>
       </c>
       <c r="I27" s="12">
         <f>G27*H27</f>
-        <v>61421.664126790602</v>
+        <v>73334.932000000001</v>
       </c>
       <c r="J27" s="28">
         <f>I27-F27</f>
-        <v>-8069.5358732093955</v>
+        <v>3843.7320000000036</v>
       </c>
       <c r="K27" s="14"/>
+      <c r="M27" s="1">
+        <f>1.25*F27</f>
+        <v>86864</v>
+      </c>
     </row>
     <row r="28" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
@@ -3116,12 +3152,12 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12">
-        <f>Valuated!J38</f>
-        <v>3193.3198415117336</v>
+        <f>Valuated!J40</f>
+        <v>3812.6920975000003</v>
       </c>
       <c r="J28" s="28">
         <f>I28-F28</f>
-        <v>-419.53615848826621</v>
+        <v>199.83609750000051</v>
       </c>
       <c r="K28" s="14"/>
     </row>
@@ -3164,11 +3200,11 @@
         <v>500</v>
       </c>
       <c r="G30" s="12">
-        <f>Valuated!G40</f>
+        <f>Valuated!G42</f>
         <v>1</v>
       </c>
       <c r="H30" s="12">
-        <f>Valuated!I40</f>
+        <f>Valuated!I42</f>
         <v>500</v>
       </c>
       <c r="I30" s="12">
@@ -3210,16 +3246,23 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7">
         <f>SUM(I13:I30)</f>
-        <v>222204.20863519714</v>
+        <v>227972.15232177684</v>
       </c>
       <c r="J32" s="13">
         <f>I32-F32</f>
-        <v>-5634.742037034739</v>
+        <v>133.20164954496431</v>
       </c>
       <c r="K32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -3233,13 +3276,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3255,10 +3291,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S106"/>
+  <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3276,113 +3312,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
+      <c r="A5" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="A6" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
+      <c r="H6" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
+      <c r="H7" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -3419,7 +3455,7 @@
         <v>15</v>
       </c>
       <c r="N8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
@@ -3427,7 +3463,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -3439,16 +3475,16 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="N9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="36">
         <v>1</v>
@@ -3458,15 +3494,15 @@
         <v>8.32</v>
       </c>
       <c r="E10" s="38">
-        <f>F30/2</f>
-        <v>1.0667479427003961</v>
+        <f>F32/2</f>
+        <v>1.0408412069491009</v>
       </c>
       <c r="F10" s="38">
         <v>0.6</v>
       </c>
       <c r="G10" s="39">
         <f>PRODUCT(C10:F10)</f>
-        <v>5.325205729960377</v>
+        <v>5.1958793050899112</v>
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
@@ -3482,27 +3518,28 @@
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
-      <c r="B11" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="23">
-        <f>SUM(G10:G10)</f>
-        <v>5.325205729960377</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="23">
-        <v>64.63</v>
-      </c>
-      <c r="J11" s="41">
-        <f>G11*I11</f>
-        <v>344.16804632733914</v>
-      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="36">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="38">
+        <f>D21</f>
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="38">
+        <f t="shared" ref="E11" si="0">E21</f>
+        <v>1.0408412069491009</v>
+      </c>
+      <c r="F11" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="39">
+        <f>PRODUCT(C11:F11)</f>
+        <v>-0.31225236208473023</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="21"/>
       <c r="M11" s="25"/>
       <c r="N11" s="1"/>
@@ -3521,12 +3558,19 @@
       <c r="D12" s="20"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
+      <c r="G12" s="23">
+        <f>SUM(G10:G11)</f>
+        <v>4.8836269430051811</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="23">
+        <v>64.63</v>
+      </c>
       <c r="J12" s="41">
-        <f>0.13*G11*19284/360</f>
-        <v>37.082957634867412</v>
+        <f>G12*I12</f>
+        <v>315.62880932642486</v>
       </c>
       <c r="K12" s="21"/>
       <c r="M12" s="25"/>
@@ -3539,7 +3583,9 @@
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
-      <c r="B13" s="37"/>
+      <c r="B13" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="C13" s="19"/>
       <c r="D13" s="20"/>
       <c r="E13" s="21"/>
@@ -3547,7 +3593,10 @@
       <c r="G13" s="23"/>
       <c r="H13" s="22"/>
       <c r="I13" s="23"/>
-      <c r="J13" s="41"/>
+      <c r="J13" s="41">
+        <f>0.13*G12*19284/360</f>
+        <v>34.007950155440412</v>
+      </c>
       <c r="K13" s="21"/>
       <c r="M13" s="25"/>
       <c r="N13" s="1"/>
@@ -3557,13 +3606,9 @@
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
     </row>
-    <row r="14" spans="1:19" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
-        <v>2</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>52</v>
-      </c>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
       <c r="E14" s="21"/>
@@ -3581,33 +3626,21 @@
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="66">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="38">
-        <f>D10</f>
-        <v>8.32</v>
-      </c>
-      <c r="E15" s="38">
-        <f>E10/2</f>
-        <v>0.53337397135019804</v>
-      </c>
-      <c r="F15" s="38">
-        <f>F10/2</f>
-        <v>0.3</v>
-      </c>
-      <c r="G15" s="39">
-        <f>PRODUCT(C15:F15)</f>
-        <v>0.66565071624504712</v>
-      </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
+    <row r="15" spans="1:19" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>2</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="41"/>
       <c r="K15" s="21"/>
       <c r="M15" s="25"/>
       <c r="N15" s="1"/>
@@ -3620,26 +3653,30 @@
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="23">
-        <f>SUM(G15:G15)</f>
-        <v>0.66565071624504712</v>
-      </c>
-      <c r="H16" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="23">
-        <v>404.28</v>
-      </c>
-      <c r="J16" s="41">
-        <f>G16*I16</f>
-        <v>269.10927156354762</v>
-      </c>
+      <c r="C16" s="66">
+        <v>0</v>
+      </c>
+      <c r="D16" s="38">
+        <f>D10</f>
+        <v>8.32</v>
+      </c>
+      <c r="E16" s="38">
+        <f>E10/2</f>
+        <v>0.52042060347455044</v>
+      </c>
+      <c r="F16" s="38">
+        <f>F10/2</f>
+        <v>0.3</v>
+      </c>
+      <c r="G16" s="39">
+        <f>PRODUCT(C16:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="21"/>
       <c r="M16" s="25"/>
       <c r="N16" s="1"/>
@@ -3651,15 +3688,27 @@
     </row>
     <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
-      <c r="B17" s="37"/>
+      <c r="B17" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="C17" s="19"/>
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="41"/>
+      <c r="G17" s="23">
+        <f>SUM(G16:G16)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="23">
+        <v>404.28</v>
+      </c>
+      <c r="J17" s="41">
+        <f>G17*I17</f>
+        <v>0</v>
+      </c>
       <c r="K17" s="21"/>
       <c r="M17" s="25"/>
       <c r="N17" s="1"/>
@@ -3669,13 +3718,9 @@
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
     </row>
-    <row r="18" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
-        <v>3</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>45</v>
-      </c>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
       <c r="E18" s="21"/>
@@ -3693,34 +3738,21 @@
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="37" t="str">
-        <f>B15</f>
-        <v>-Road</v>
-      </c>
-      <c r="C19" s="36">
-        <f>C10</f>
-        <v>1</v>
-      </c>
-      <c r="D19" s="38">
-        <f>D15</f>
-        <v>8.32</v>
-      </c>
-      <c r="E19" s="38">
-        <f>E10</f>
-        <v>1.0667479427003961</v>
-      </c>
-      <c r="F19" s="38">
-        <v>0.15</v>
-      </c>
-      <c r="G19" s="39">
-        <f>PRODUCT(C19:F19)</f>
-        <v>1.3313014324900942</v>
-      </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
+    <row r="19" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>3</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="41"/>
       <c r="K19" s="21"/>
       <c r="M19" s="25"/>
       <c r="N19" s="1"/>
@@ -3731,145 +3763,145 @@
       <c r="S19" s="25"/>
     </row>
     <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="33">
-        <f>SUM(G19:G19)</f>
-        <v>1.3313014324900942</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="33">
-        <v>4561.53</v>
-      </c>
-      <c r="J20" s="44">
-        <f>G20*I20</f>
-        <v>6072.7714233465394</v>
-      </c>
-      <c r="K20" s="36"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="37" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="37" t="str">
+        <f>B16</f>
+        <v>-Road</v>
+      </c>
+      <c r="C20" s="36">
+        <f>C10</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="38">
+        <f>D16</f>
+        <v>8.32</v>
+      </c>
+      <c r="E20" s="38">
+        <f>E10</f>
+        <v>1.0408412069491009</v>
+      </c>
+      <c r="F20" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="G20" s="39">
+        <f>PRODUCT(C20:F20)</f>
+        <v>1.2989698262724778</v>
+      </c>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="21"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="36">
+        <v>-1</v>
+      </c>
+      <c r="D21" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="38">
+        <f>E20</f>
+        <v>1.0408412069491009</v>
+      </c>
+      <c r="F21" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="G21" s="39">
+        <f>PRODUCT(C21:F21)</f>
+        <v>-7.8063090521182557E-2</v>
+      </c>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="21"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="45">
-        <f>0.13*G20*(15452.6/5)</f>
-        <v>534.87378140810722</v>
-      </c>
-      <c r="K21" s="36"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="37"/>
       <c r="C22" s="42"/>
       <c r="D22" s="43"/>
       <c r="E22" s="43"/>
       <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="45"/>
+      <c r="G22" s="33">
+        <f>SUM(G20:G21)</f>
+        <v>1.2209067357512953</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="33">
+        <v>4561.53</v>
+      </c>
+      <c r="J22" s="44">
+        <f>G22*I22</f>
+        <v>5569.2027023316059</v>
+      </c>
       <c r="K22" s="36"/>
     </row>
-    <row r="23" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="45">
+        <f>0.13*G22*(15452.6/5)</f>
+        <v>490.52076904663215</v>
+      </c>
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
         <v>4</v>
       </c>
-      <c r="B23" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="21"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-    </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="37" t="str">
-        <f>B10</f>
-        <v>-For wall</v>
-      </c>
-      <c r="C24" s="36">
-        <f>C10</f>
-        <v>1</v>
-      </c>
-      <c r="D24" s="38">
-        <f>D10</f>
-        <v>8.32</v>
-      </c>
-      <c r="E24" s="38">
-        <f>E10</f>
-        <v>1.0667479427003961</v>
-      </c>
-      <c r="F24" s="38">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G24" s="39">
-        <f>PRODUCT(C24:F24)</f>
-        <v>0.22188357208168241</v>
-      </c>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="21"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-    </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="36">
-        <v>1</v>
-      </c>
-      <c r="D25" s="38">
-        <f>D24</f>
-        <v>8.32</v>
-      </c>
-      <c r="E25" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="F25" s="38">
-        <v>0.05</v>
-      </c>
-      <c r="G25" s="39">
-        <f>PRODUCT(C25:F25)</f>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
+      <c r="B25" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="41"/>
       <c r="K25" s="21"/>
       <c r="M25" s="25"/>
       <c r="N25" s="1"/>
@@ -3880,176 +3912,212 @@
       <c r="S25" s="25"/>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="33">
-        <f>SUM(G24:G25)</f>
-        <v>0.42988357208168243</v>
-      </c>
-      <c r="H26" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="33">
-        <v>10634.5</v>
-      </c>
-      <c r="J26" s="44">
-        <f>G26*I26</f>
-        <v>4571.5968473026514</v>
-      </c>
-      <c r="K26" s="36"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="37" t="str">
+        <f>B10</f>
+        <v>-For wall</v>
+      </c>
+      <c r="C26" s="36">
+        <f>C10</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="38">
+        <f>D10</f>
+        <v>8.32</v>
+      </c>
+      <c r="E26" s="38">
+        <f>E10</f>
+        <v>1.0408412069491009</v>
+      </c>
+      <c r="F26" s="38">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G26" s="39">
+        <f>PRODUCT(C26:F26)</f>
+        <v>0.21649497104541299</v>
+      </c>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="21"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
     </row>
     <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="45">
-        <f>0.13*G26*((114907.3+6135.3)/15)</f>
-        <v>450.96328560447023</v>
-      </c>
-      <c r="K27" s="36"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="36">
+        <v>1</v>
+      </c>
+      <c r="D27" s="38">
+        <f>D26</f>
+        <v>8.32</v>
+      </c>
+      <c r="E27" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G27" s="39">
+        <f>PRODUCT(C27:F27)</f>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="21"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
-      <c r="B28" s="37"/>
+      <c r="B28" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="C28" s="42"/>
       <c r="D28" s="43"/>
       <c r="E28" s="43"/>
       <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="45"/>
+      <c r="G28" s="33">
+        <f>SUM(G26:G27)</f>
+        <v>0.42449497104541301</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="33">
+        <v>10634.5</v>
+      </c>
+      <c r="J28" s="44">
+        <f>G28*I28</f>
+        <v>4514.2917695824444</v>
+      </c>
       <c r="K28" s="36"/>
     </row>
-    <row r="29" spans="1:19" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="63">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="45">
+        <f>0.13*G28*((114907.3+6135.3)/15)</f>
+        <v>445.31044984626647</v>
+      </c>
+      <c r="K29" s="36"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="36"/>
+    </row>
+    <row r="31" spans="1:19" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="63">
         <v>5</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="29"/>
-    </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="37" t="s">
+      <c r="B31" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C31" s="64"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="29"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="36">
         <v>1</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D32" s="38">
         <f>D10</f>
         <v>8.32</v>
       </c>
-      <c r="E30" s="38">
-        <f>((F30/2+0.5)/2)</f>
-        <v>0.78337397135019804</v>
-      </c>
-      <c r="F30" s="38">
-        <f>7/3.281</f>
-        <v>2.1334958854007922</v>
-      </c>
-      <c r="G30" s="39">
-        <f>PRODUCT(C30:F30)</f>
-        <v>13.905425203119638</v>
-      </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="21"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-    </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="33">
-        <f>SUM(G30:G30)</f>
-        <v>13.905425203119638</v>
-      </c>
-      <c r="H31" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31" s="33">
-        <v>9709.43</v>
-      </c>
-      <c r="J31" s="44">
-        <f>G31*I31</f>
-        <v>135013.7526299259</v>
-      </c>
-      <c r="K31" s="36"/>
-    </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="45">
-        <f>0.13*G31*((27092.1)/5)</f>
-        <v>9794.9064237813764</v>
-      </c>
-      <c r="K32" s="36"/>
+      <c r="E32" s="38">
+        <f>((F32/2+0.5)/2)</f>
+        <v>0.77042060347455044</v>
+      </c>
+      <c r="F32" s="38">
+        <f>(7-0.17)/3.281</f>
+        <v>2.0816824138982017</v>
+      </c>
+      <c r="G32" s="39">
+        <f>PRODUCT(C32:F32)</f>
+        <v>13.343374899360992</v>
+      </c>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="21"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
     </row>
     <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
-      <c r="B33" s="37"/>
+      <c r="B33" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="C33" s="42"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
       <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="45"/>
+      <c r="G33" s="33">
+        <f>SUM(G32:G32)</f>
+        <v>13.343374899360992</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="33">
+        <v>9709.43</v>
+      </c>
+      <c r="J33" s="44">
+        <f>G33*I33</f>
+        <v>129556.56454910259</v>
+      </c>
       <c r="K33" s="36"/>
     </row>
-    <row r="34" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40">
-        <v>6</v>
-      </c>
-      <c r="B34" s="65" t="s">
-        <v>56</v>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="37" t="s">
+        <v>38</v>
       </c>
       <c r="C34" s="42"/>
       <c r="D34" s="43"/>
@@ -4058,266 +4126,256 @@
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
       <c r="I34" s="43"/>
-      <c r="J34" s="45"/>
+      <c r="J34" s="45">
+        <f>0.13*G33*((27092.1)/5)</f>
+        <v>9399.0012248854255</v>
+      </c>
       <c r="K34" s="36"/>
     </row>
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
-      <c r="B35" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="42">
-        <v>1</v>
-      </c>
-      <c r="D35" s="43">
-        <f>11.75*2/3.281</f>
-        <v>7.1624504724169453</v>
-      </c>
-      <c r="E35" s="43">
-        <v>3.7</v>
-      </c>
+      <c r="B35" s="37"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
       <c r="F35" s="43"/>
-      <c r="G35" s="39">
-        <f>PRODUCT(C35:F35)</f>
-        <v>26.501066747942698</v>
-      </c>
+      <c r="G35" s="43"/>
       <c r="H35" s="43"/>
       <c r="I35" s="43"/>
       <c r="J35" s="45"/>
       <c r="K35" s="36"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="42">
-        <v>1</v>
-      </c>
-      <c r="D36" s="43">
-        <f>20.75/3.281</f>
-        <v>6.3242913745809206</v>
-      </c>
-      <c r="E36" s="43">
-        <v>1.4</v>
-      </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="39">
-        <f>PRODUCT(C36:F36)</f>
-        <v>8.8540079244132883</v>
-      </c>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
+    <row r="36" spans="1:19" s="1" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="63">
+        <v>6</v>
+      </c>
+      <c r="B36" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="64"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
       <c r="J36" s="45"/>
-      <c r="K36" s="36"/>
+      <c r="K36" s="29"/>
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
+        <v>52</v>
+      </c>
+      <c r="C37" s="42">
+        <v>1</v>
+      </c>
+      <c r="D37" s="43">
+        <f>8.5</f>
+        <v>8.5</v>
+      </c>
+      <c r="E37" s="43">
+        <v>3.9</v>
+      </c>
       <c r="F37" s="43"/>
-      <c r="G37" s="33">
-        <f>SUM(G35:G36)</f>
-        <v>35.355074672355983</v>
-      </c>
-      <c r="H37" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I37" s="33">
-        <v>1737.28</v>
-      </c>
-      <c r="J37" s="44">
-        <f>G37*I37</f>
-        <v>61421.664126790602</v>
-      </c>
+      <c r="G37" s="39">
+        <f>PRODUCT(C37:F37)</f>
+        <v>33.15</v>
+      </c>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="45"/>
       <c r="K37" s="36"/>
     </row>
     <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
-      <c r="B38" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="42">
+        <v>1</v>
+      </c>
+      <c r="D38" s="43">
+        <v>6.25</v>
+      </c>
+      <c r="E38" s="43">
+        <v>1.45</v>
+      </c>
       <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
+      <c r="G38" s="39">
+        <f>PRODUCT(C38:F38)</f>
+        <v>9.0625</v>
+      </c>
       <c r="H38" s="43"/>
       <c r="I38" s="43"/>
-      <c r="J38" s="45">
-        <f>0.13*G37*(6947.8/10)</f>
-        <v>3193.3198415117336</v>
-      </c>
+      <c r="J38" s="45"/>
       <c r="K38" s="36"/>
     </row>
     <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
-      <c r="B39" s="37"/>
+      <c r="B39" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="C39" s="42"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
       <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="45"/>
+      <c r="G39" s="33">
+        <f>SUM(G37:G38)</f>
+        <v>42.212499999999999</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="33">
+        <v>1737.28</v>
+      </c>
+      <c r="J39" s="44">
+        <f>G39*I39</f>
+        <v>73334.932000000001</v>
+      </c>
       <c r="K39" s="36"/>
     </row>
     <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18">
+      <c r="A40" s="40"/>
+      <c r="B40" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="45">
+        <f>0.13*G39*(6947.8/10)</f>
+        <v>3812.6920975000003</v>
+      </c>
+      <c r="K40" s="36"/>
+    </row>
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="36"/>
+    </row>
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18">
         <v>7</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C42" s="19">
         <v>1</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="34">
-        <f t="shared" ref="G40" si="0">PRODUCT(C40:F40)</f>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="34">
+        <f t="shared" ref="G42" si="1">PRODUCT(C42:F42)</f>
         <v>1</v>
       </c>
-      <c r="H40" s="22" t="s">
+      <c r="H42" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I42" s="23">
         <v>500</v>
       </c>
-      <c r="J40" s="34">
-        <f>G40*I40</f>
+      <c r="J42" s="34">
+        <f>G42*I42</f>
         <v>500</v>
       </c>
-      <c r="K40" s="21"/>
-      <c r="M40" s="25"/>
-    </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="21"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="46" t="s">
+      <c r="K42" s="21"/>
+      <c r="M42" s="25"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="21"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="40"/>
+      <c r="B44" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41">
-        <f>SUM(J10:J40)</f>
-        <v>222204.20863519714</v>
-      </c>
-      <c r="K42" s="36"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="57"/>
-    </row>
-    <row r="44" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="87">
-        <f>J42</f>
-        <v>222204.20863519714</v>
-      </c>
-      <c r="D44" s="87"/>
-      <c r="E44" s="39">
+      <c r="C44" s="47"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41">
+        <f>SUM(J10:J42)</f>
+        <v>227972.15232177684</v>
+      </c>
+      <c r="K44" s="36"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="58"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="57"/>
+    </row>
+    <row r="46" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="50"/>
+      <c r="B46" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="70">
+        <f>J44</f>
+        <v>227972.15232177684</v>
+      </c>
+      <c r="D46" s="70"/>
+      <c r="E46" s="39">
         <v>100</v>
       </c>
-      <c r="F44" s="51"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="55"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
-      <c r="B45" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="88">
-        <v>200000</v>
-      </c>
-      <c r="D45" s="88"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="49"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
-      <c r="B46" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="88">
-        <f>C45-C48-C49</f>
-        <v>190000</v>
-      </c>
-      <c r="D46" s="88"/>
-      <c r="E46" s="39">
-        <f>C46/C44*100</f>
-        <v>85.506931289466138</v>
-      </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="49"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="55"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="56"/>
       <c r="B47" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="87">
-        <f>C44-C46</f>
-        <v>32204.208635197137</v>
-      </c>
-      <c r="D47" s="87"/>
-      <c r="E47" s="39">
-        <f>100-E46</f>
-        <v>14.493068710533862</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C47" s="73">
+        <v>200000</v>
+      </c>
+      <c r="D47" s="73"/>
+      <c r="E47" s="39"/>
       <c r="F47" s="49"/>
       <c r="G47" s="48"/>
       <c r="H47" s="48"/>
@@ -4328,15 +4386,16 @@
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="56"/>
       <c r="B48" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="87">
-        <f>C45*0.03</f>
-        <v>6000</v>
-      </c>
-      <c r="D48" s="87"/>
+        <v>33</v>
+      </c>
+      <c r="C48" s="73">
+        <f>C47-C50-C51</f>
+        <v>190000</v>
+      </c>
+      <c r="D48" s="73"/>
       <c r="E48" s="39">
-        <v>3</v>
+        <f>C48/C46*100</f>
+        <v>83.343512821609849</v>
       </c>
       <c r="F48" s="49"/>
       <c r="G48" s="48"/>
@@ -4348,15 +4407,16 @@
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="56"/>
       <c r="B49" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="87">
-        <f>C45*0.02</f>
-        <v>4000</v>
-      </c>
-      <c r="D49" s="87"/>
+        <v>34</v>
+      </c>
+      <c r="C49" s="70">
+        <f>C46-C48</f>
+        <v>37972.152321776841</v>
+      </c>
+      <c r="D49" s="70"/>
       <c r="E49" s="39">
-        <v>2</v>
+        <f>100-E48</f>
+        <v>16.656487178390151</v>
       </c>
       <c r="F49" s="49"/>
       <c r="G49" s="48"/>
@@ -4365,21 +4425,59 @@
       <c r="J49" s="48"/>
       <c r="K49" s="49"/>
     </row>
-    <row r="50" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-    </row>
-    <row r="51" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="56"/>
+      <c r="B50" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="70">
+        <f>C47*0.03</f>
+        <v>6000</v>
+      </c>
+      <c r="D50" s="70"/>
+      <c r="E50" s="39">
+        <v>3</v>
+      </c>
+      <c r="F50" s="49"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="49"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="56"/>
+      <c r="B51" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="70">
+        <f>C47*0.02</f>
+        <v>4000</v>
+      </c>
+      <c r="D51" s="70"/>
+      <c r="E51" s="39">
+        <v>2</v>
+      </c>
+      <c r="F51" s="49"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="49"/>
+    </row>
+    <row r="52" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="57"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+    </row>
     <row r="53" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4434,23 +4532,25 @@
     <row r="104" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="105" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="106" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -4460,5 +4560,1278 @@
 &amp;RApproved By:
 </oddFooter>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="30" max="10" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A24" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="2"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="67" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="3"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="68" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="63">
+        <v>1</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="N9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="36">
+        <v>1</v>
+      </c>
+      <c r="D10" s="38">
+        <f>8.32</f>
+        <v>8.32</v>
+      </c>
+      <c r="E10" s="38">
+        <f>F32/2</f>
+        <v>1.0408412069491009</v>
+      </c>
+      <c r="F10" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="G10" s="39">
+        <f>PRODUCT(C10:F10)</f>
+        <v>5.1958793050899112</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="21"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="36">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="38">
+        <f>D21</f>
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="38">
+        <f t="shared" ref="E11" si="0">E21</f>
+        <v>1.0408412069491009</v>
+      </c>
+      <c r="F11" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="39">
+        <f>PRODUCT(C11:F11)</f>
+        <v>-0.31225236208473023</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="21"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="23">
+        <f>SUM(G10:G11)</f>
+        <v>4.8836269430051811</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="23">
+        <v>64.63</v>
+      </c>
+      <c r="J12" s="41">
+        <f>G12*I12</f>
+        <v>315.62880932642486</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="41">
+        <f>0.13*G12*19284/360</f>
+        <v>34.007950155440412</v>
+      </c>
+      <c r="K13" s="21"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="21"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+    </row>
+    <row r="15" spans="1:19" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>2</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="21"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="66">
+        <v>0</v>
+      </c>
+      <c r="D16" s="38">
+        <f>D10</f>
+        <v>8.32</v>
+      </c>
+      <c r="E16" s="38">
+        <f>E10/2</f>
+        <v>0.52042060347455044</v>
+      </c>
+      <c r="F16" s="38">
+        <f>F10/2</f>
+        <v>0.3</v>
+      </c>
+      <c r="G16" s="39">
+        <f>PRODUCT(C16:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="21"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="23">
+        <f>SUM(G16:G16)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="23">
+        <v>404.28</v>
+      </c>
+      <c r="J17" s="41">
+        <f>G17*I17</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="21"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="21"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+    </row>
+    <row r="19" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>3</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="21"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="37" t="str">
+        <f>B16</f>
+        <v>-Road</v>
+      </c>
+      <c r="C20" s="36">
+        <f>C10</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="38">
+        <f>D16</f>
+        <v>8.32</v>
+      </c>
+      <c r="E20" s="38">
+        <f>E10</f>
+        <v>1.0408412069491009</v>
+      </c>
+      <c r="F20" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="G20" s="39">
+        <f>PRODUCT(C20:F20)</f>
+        <v>1.2989698262724778</v>
+      </c>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="21"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="36">
+        <v>-1</v>
+      </c>
+      <c r="D21" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="38">
+        <f>E20</f>
+        <v>1.0408412069491009</v>
+      </c>
+      <c r="F21" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="G21" s="39">
+        <f>PRODUCT(C21:F21)</f>
+        <v>-7.8063090521182557E-2</v>
+      </c>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="21"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="33">
+        <f>SUM(G20:G21)</f>
+        <v>1.2209067357512953</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="33">
+        <v>4561.53</v>
+      </c>
+      <c r="J22" s="44">
+        <f>G22*I22</f>
+        <v>5569.2027023316059</v>
+      </c>
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="45">
+        <f>0.13*G22*(15452.6/5)</f>
+        <v>490.52076904663215</v>
+      </c>
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>4</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="21"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="37" t="str">
+        <f>B10</f>
+        <v>-For wall</v>
+      </c>
+      <c r="C26" s="36">
+        <f>C10</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="38">
+        <f>D10</f>
+        <v>8.32</v>
+      </c>
+      <c r="E26" s="38">
+        <f>E10</f>
+        <v>1.0408412069491009</v>
+      </c>
+      <c r="F26" s="38">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G26" s="39">
+        <f>PRODUCT(C26:F26)</f>
+        <v>0.21649497104541299</v>
+      </c>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="21"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="36">
+        <v>1</v>
+      </c>
+      <c r="D27" s="38">
+        <f>D26</f>
+        <v>8.32</v>
+      </c>
+      <c r="E27" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G27" s="39">
+        <f>PRODUCT(C27:F27)</f>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="21"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="42"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="33">
+        <f>SUM(G26:G27)</f>
+        <v>0.42449497104541301</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="33">
+        <v>10634.5</v>
+      </c>
+      <c r="J28" s="44">
+        <f>G28*I28</f>
+        <v>4514.2917695824444</v>
+      </c>
+      <c r="K28" s="36"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="45">
+        <f>0.13*G28*((114907.3+6135.3)/15)</f>
+        <v>445.31044984626647</v>
+      </c>
+      <c r="K29" s="36"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="36"/>
+    </row>
+    <row r="31" spans="1:19" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="63">
+        <v>5</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="64"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="29"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="36">
+        <v>1</v>
+      </c>
+      <c r="D32" s="38">
+        <f>D10</f>
+        <v>8.32</v>
+      </c>
+      <c r="E32" s="38">
+        <f>((F32/2+0.5)/2)</f>
+        <v>0.77042060347455044</v>
+      </c>
+      <c r="F32" s="38">
+        <f>(7-0.17)/3.281</f>
+        <v>2.0816824138982017</v>
+      </c>
+      <c r="G32" s="39">
+        <f>PRODUCT(C32:F32)</f>
+        <v>13.343374899360992</v>
+      </c>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="21"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="42"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="33">
+        <f>SUM(G32:G32)</f>
+        <v>13.343374899360992</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="33">
+        <v>9709.43</v>
+      </c>
+      <c r="J33" s="44">
+        <f>G33*I33</f>
+        <v>129556.56454910259</v>
+      </c>
+      <c r="K33" s="36"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="45">
+        <f>0.13*G33*((27092.1)/5)</f>
+        <v>9399.0012248854255</v>
+      </c>
+      <c r="K34" s="36"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="40"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="36"/>
+    </row>
+    <row r="36" spans="1:19" s="1" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="63">
+        <v>6</v>
+      </c>
+      <c r="B36" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="64"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="29"/>
+    </row>
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
+      <c r="B37" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="42">
+        <v>1</v>
+      </c>
+      <c r="D37" s="43">
+        <f>8.5</f>
+        <v>8.5</v>
+      </c>
+      <c r="E37" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="F37" s="43"/>
+      <c r="G37" s="39">
+        <f>PRODUCT(C37:F37)</f>
+        <v>33.15</v>
+      </c>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="36"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="40"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="42">
+        <v>1</v>
+      </c>
+      <c r="D38" s="43">
+        <v>6.25</v>
+      </c>
+      <c r="E38" s="43">
+        <v>1.45</v>
+      </c>
+      <c r="F38" s="43"/>
+      <c r="G38" s="39">
+        <f>PRODUCT(C38:F38)</f>
+        <v>9.0625</v>
+      </c>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="36"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="33">
+        <f>SUM(G37:G38)</f>
+        <v>42.212499999999999</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="33">
+        <v>1737.28</v>
+      </c>
+      <c r="J39" s="44">
+        <f>G39*I39</f>
+        <v>73334.932000000001</v>
+      </c>
+      <c r="K39" s="36"/>
+    </row>
+    <row r="40" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
+      <c r="B40" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="45">
+        <f>0.13*G39*(6947.8/10)</f>
+        <v>3812.6920975000003</v>
+      </c>
+      <c r="K40" s="36"/>
+    </row>
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="36"/>
+    </row>
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18">
+        <v>7</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="19">
+        <v>1</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="34">
+        <f t="shared" ref="G42" si="1">PRODUCT(C42:F42)</f>
+        <v>1</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="23">
+        <v>500</v>
+      </c>
+      <c r="J42" s="34">
+        <f>G42*I42</f>
+        <v>500</v>
+      </c>
+      <c r="K42" s="21"/>
+      <c r="M42" s="25"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="21"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="40"/>
+      <c r="B44" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="47"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41">
+        <f>SUM(J10:J42)</f>
+        <v>227972.15232177684</v>
+      </c>
+      <c r="K44" s="36"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="58"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="57"/>
+    </row>
+    <row r="46" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="50"/>
+      <c r="B46" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="70">
+        <f>J44</f>
+        <v>227972.15232177684</v>
+      </c>
+      <c r="D46" s="70"/>
+      <c r="E46" s="39">
+        <v>100</v>
+      </c>
+      <c r="F46" s="51"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="55"/>
+    </row>
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="56"/>
+      <c r="B47" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="73">
+        <v>200000</v>
+      </c>
+      <c r="D47" s="73"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="49"/>
+    </row>
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="56"/>
+      <c r="B48" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="73">
+        <f>C47-C50-C51</f>
+        <v>190000</v>
+      </c>
+      <c r="D48" s="73"/>
+      <c r="E48" s="39">
+        <f>C48/C46*100</f>
+        <v>83.343512821609849</v>
+      </c>
+      <c r="F48" s="49"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="49"/>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="56"/>
+      <c r="B49" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="70">
+        <f>C46-C48</f>
+        <v>37972.152321776841</v>
+      </c>
+      <c r="D49" s="70"/>
+      <c r="E49" s="39">
+        <f>100-E48</f>
+        <v>16.656487178390151</v>
+      </c>
+      <c r="F49" s="49"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="49"/>
+    </row>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="56"/>
+      <c r="B50" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="70">
+        <f>C47*0.03</f>
+        <v>6000</v>
+      </c>
+      <c r="D50" s="70"/>
+      <c r="E50" s="39">
+        <v>3</v>
+      </c>
+      <c r="F50" s="49"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="49"/>
+    </row>
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="56"/>
+      <c r="B51" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="70">
+        <f>C47*0.02</f>
+        <v>4000</v>
+      </c>
+      <c r="D51" s="70"/>
+      <c r="E51" s="39">
+        <v>2</v>
+      </c>
+      <c r="F51" s="49"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="49"/>
+    </row>
+    <row r="52" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="57"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+    </row>
+    <row r="53" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;LPrepared By:
+&amp;CChecked By:
+&amp;RApproved By:
+</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>